--- a/data_pub.xlsx
+++ b/data_pub.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheinalew-levy/Documents/GitHub/Toys-As-Teachers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A2E9C9-CBA4-7648-ACB9-E17E35EEA06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CE791B-4956-2D4A-A911-2A0EDEAB4CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1740" yWindow="460" windowWidth="39220" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13012" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13055" uniqueCount="830">
   <si>
     <t>Society</t>
   </si>
@@ -2510,6 +2510,135 @@
   </si>
   <si>
     <t>TBD</t>
+  </si>
+  <si>
+    <t>225.1</t>
+  </si>
+  <si>
+    <t>451.1</t>
+  </si>
+  <si>
+    <t>704.1</t>
+  </si>
+  <si>
+    <t>1165.1</t>
+  </si>
+  <si>
+    <t>1165.2</t>
+  </si>
+  <si>
+    <t>1803.1</t>
+  </si>
+  <si>
+    <t>1804.1</t>
+  </si>
+  <si>
+    <t>2095.1</t>
+  </si>
+  <si>
+    <t>2096.2</t>
+  </si>
+  <si>
+    <t>2102.1</t>
+  </si>
+  <si>
+    <t>2102.2</t>
+  </si>
+  <si>
+    <t>2216.1</t>
+  </si>
+  <si>
+    <t>2217.11</t>
+  </si>
+  <si>
+    <t>2217.12</t>
+  </si>
+  <si>
+    <t>2217.13</t>
+  </si>
+  <si>
+    <t>2217.14</t>
+  </si>
+  <si>
+    <t>2217.3</t>
+  </si>
+  <si>
+    <t>2217.8</t>
+  </si>
+  <si>
+    <t>2289.1</t>
+  </si>
+  <si>
+    <t>2289.3</t>
+  </si>
+  <si>
+    <t>2291.1</t>
+  </si>
+  <si>
+    <t>2293.1</t>
+  </si>
+  <si>
+    <t>2323.1</t>
+  </si>
+  <si>
+    <t>2337.1</t>
+  </si>
+  <si>
+    <t>2406.2</t>
+  </si>
+  <si>
+    <t>2407.1</t>
+  </si>
+  <si>
+    <t>2409.1</t>
+  </si>
+  <si>
+    <t>2410.1</t>
+  </si>
+  <si>
+    <t>2415.1</t>
+  </si>
+  <si>
+    <t>2416.1</t>
+  </si>
+  <si>
+    <t>2424.1</t>
+  </si>
+  <si>
+    <t>2432.1</t>
+  </si>
+  <si>
+    <t>2446.1</t>
+  </si>
+  <si>
+    <t>2446.2</t>
+  </si>
+  <si>
+    <t>2451.1</t>
+  </si>
+  <si>
+    <t>2451.2</t>
+  </si>
+  <si>
+    <t>2455.1</t>
+  </si>
+  <si>
+    <t>2457.1</t>
+  </si>
+  <si>
+    <t>2460.1</t>
+  </si>
+  <si>
+    <t>2468.1</t>
+  </si>
+  <si>
+    <t>2469.6</t>
+  </si>
+  <si>
+    <t>2472.1</t>
+  </si>
+  <si>
+    <t>2480.3</t>
   </si>
 </sst>
 </file>
@@ -2993,14 +3122,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3358,11 +3489,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI435"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AE18" sqref="AE18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="31" max="31" width="10.83203125" style="4"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -3455,7 +3589,7 @@
       <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="4" t="s">
         <v>28</v>
       </c>
       <c r="AF1" t="s">
@@ -3562,7 +3696,7 @@
       <c r="AD2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AE2" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF2" t="s">
@@ -3669,7 +3803,7 @@
       <c r="AD3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AE3" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF3" t="s">
@@ -3776,7 +3910,7 @@
       <c r="AD4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AE4" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF4" t="s">
@@ -3883,7 +4017,7 @@
       <c r="AD5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AE5" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF5" t="s">
@@ -3990,7 +4124,7 @@
       <c r="AD6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AE6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF6" t="s">
@@ -4097,7 +4231,7 @@
       <c r="AD7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AE7" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF7" t="s">
@@ -4204,7 +4338,7 @@
       <c r="AD8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AE8" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF8" t="s">
@@ -4311,7 +4445,7 @@
       <c r="AD9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AE9" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF9" t="s">
@@ -4418,7 +4552,7 @@
       <c r="AD10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AE10" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF10" t="s">
@@ -4525,7 +4659,7 @@
       <c r="AD11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AE11" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF11" t="s">
@@ -4632,7 +4766,7 @@
       <c r="AD12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AE12" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF12" t="s">
@@ -4739,7 +4873,7 @@
       <c r="AD13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AE13" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF13" t="s">
@@ -4846,7 +4980,7 @@
       <c r="AD14" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AE14" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF14" t="s">
@@ -4953,7 +5087,7 @@
       <c r="AD15" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AE15" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF15" t="s">
@@ -5060,7 +5194,7 @@
       <c r="AD16" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AE16" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF16" t="s">
@@ -5167,7 +5301,7 @@
       <c r="AD17" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AE17" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF17" t="s">
@@ -5274,7 +5408,7 @@
       <c r="AD18" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AE18" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF18" t="s">
@@ -5381,7 +5515,7 @@
       <c r="AD19" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AE19" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF19" t="s">
@@ -5488,7 +5622,7 @@
       <c r="AD20" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AE20" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF20" t="s">
@@ -5595,7 +5729,7 @@
       <c r="AD21" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AE21" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF21" t="s">
@@ -5702,7 +5836,7 @@
       <c r="AD22" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AE22" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF22" t="s">
@@ -5809,7 +5943,7 @@
       <c r="AD23" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AE23" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF23" t="s">
@@ -5916,7 +6050,7 @@
       <c r="AD24" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AE24" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF24" t="s">
@@ -6023,7 +6157,7 @@
       <c r="AD25" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AE25" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF25" t="s">
@@ -6130,7 +6264,7 @@
       <c r="AD26" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AE26" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF26" t="s">
@@ -6237,7 +6371,7 @@
       <c r="AD27" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AE27" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF27" t="s">
@@ -6344,7 +6478,7 @@
       <c r="AD28" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AE28" t="s">
+      <c r="AE28" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF28" t="s">
@@ -6451,7 +6585,7 @@
       <c r="AD29" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AE29" t="s">
+      <c r="AE29" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF29" t="s">
@@ -6558,7 +6692,7 @@
       <c r="AD30" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AE30" t="s">
+      <c r="AE30" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF30" t="s">
@@ -6665,7 +6799,7 @@
       <c r="AD31" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AE31" t="s">
+      <c r="AE31" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF31" t="s">
@@ -6772,7 +6906,7 @@
       <c r="AD32" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AE32" t="s">
+      <c r="AE32" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF32" t="s">
@@ -6879,7 +7013,7 @@
       <c r="AD33" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AE33" t="s">
+      <c r="AE33" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF33" t="s">
@@ -6986,7 +7120,7 @@
       <c r="AD34" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AE34" t="s">
+      <c r="AE34" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF34" t="s">
@@ -7093,7 +7227,7 @@
       <c r="AD35" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AE35" t="s">
+      <c r="AE35" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF35" t="s">
@@ -7200,8 +7334,8 @@
       <c r="AD36" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="AE36" s="3">
-        <v>225.1</v>
+      <c r="AE36" s="5" t="s">
+        <v>787</v>
       </c>
       <c r="AF36" s="3" t="s">
         <v>759</v>
@@ -7307,7 +7441,7 @@
       <c r="AD37" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AE37" t="s">
+      <c r="AE37" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF37" s="3" t="s">
@@ -7414,7 +7548,7 @@
       <c r="AD38" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AE38" t="s">
+      <c r="AE38" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF38" s="3" t="s">
@@ -7521,7 +7655,7 @@
       <c r="AD39" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AE39" t="s">
+      <c r="AE39" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF39" s="3" t="s">
@@ -7628,7 +7762,7 @@
       <c r="AD40" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AE40" t="s">
+      <c r="AE40" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF40" s="3" t="s">
@@ -7735,7 +7869,7 @@
       <c r="AD41" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AE41" t="s">
+      <c r="AE41" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF41" s="3" t="s">
@@ -7842,7 +7976,7 @@
       <c r="AD42" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AE42" t="s">
+      <c r="AE42" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF42" s="3" t="s">
@@ -7949,7 +8083,7 @@
       <c r="AD43" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AE43" t="s">
+      <c r="AE43" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF43" s="3" t="s">
@@ -8056,8 +8190,8 @@
       <c r="AD44" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="AE44">
-        <v>451.1</v>
+      <c r="AE44" s="4" t="s">
+        <v>788</v>
       </c>
       <c r="AF44" s="3" t="s">
         <v>781</v>
@@ -8163,7 +8297,7 @@
       <c r="AD45" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AE45" t="s">
+      <c r="AE45" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF45" s="3" t="s">
@@ -8270,8 +8404,8 @@
       <c r="AD46" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="AE46" s="3">
-        <v>704.1</v>
+      <c r="AE46" s="5" t="s">
+        <v>789</v>
       </c>
       <c r="AF46" s="3" t="s">
         <v>756</v>
@@ -8377,7 +8511,7 @@
       <c r="AD47" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AE47" t="s">
+      <c r="AE47" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF47" s="3" t="s">
@@ -8484,7 +8618,7 @@
       <c r="AD48" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AE48" t="s">
+      <c r="AE48" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF48" s="3" t="s">
@@ -8591,7 +8725,7 @@
       <c r="AD49" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AE49" t="s">
+      <c r="AE49" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF49" s="3" t="s">
@@ -8698,7 +8832,7 @@
       <c r="AD50" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AE50" t="s">
+      <c r="AE50" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF50" s="3" t="s">
@@ -8805,7 +8939,7 @@
       <c r="AD51" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AE51" t="s">
+      <c r="AE51" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF51" s="3" t="s">
@@ -8912,7 +9046,7 @@
       <c r="AD52" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AE52" t="s">
+      <c r="AE52" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF52" s="3" t="s">
@@ -9019,8 +9153,8 @@
       <c r="AD53" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="AE53" s="4">
-        <v>1165.0999999999999</v>
+      <c r="AE53" s="6" t="s">
+        <v>790</v>
       </c>
       <c r="AF53" s="3" t="s">
         <v>779</v>
@@ -9126,7 +9260,7 @@
       <c r="AD54" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AE54" t="s">
+      <c r="AE54" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF54" s="3" t="s">
@@ -9233,7 +9367,7 @@
       <c r="AD55" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AE55" t="s">
+      <c r="AE55" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF55" s="3" t="s">
@@ -9340,8 +9474,8 @@
       <c r="AD56" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="AE56" s="3">
-        <v>1165.2</v>
+      <c r="AE56" s="5" t="s">
+        <v>791</v>
       </c>
       <c r="AF56" s="3" t="s">
         <v>778</v>
@@ -9447,8 +9581,8 @@
       <c r="AD57" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="AE57">
-        <v>1803.1</v>
+      <c r="AE57" s="4" t="s">
+        <v>792</v>
       </c>
       <c r="AF57" s="3" t="s">
         <v>760</v>
@@ -9554,7 +9688,7 @@
       <c r="AD58" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AE58" t="s">
+      <c r="AE58" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF58" s="3" t="s">
@@ -9661,7 +9795,7 @@
       <c r="AD59" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="AE59" t="s">
+      <c r="AE59" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF59" s="3" t="s">
@@ -9768,7 +9902,7 @@
       <c r="AD60" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="AE60" t="s">
+      <c r="AE60" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF60" s="3" t="s">
@@ -9875,7 +10009,7 @@
       <c r="AD61" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AE61" t="s">
+      <c r="AE61" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF61" s="3" t="s">
@@ -9982,8 +10116,8 @@
       <c r="AD62" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="AE62">
-        <v>1804.1</v>
+      <c r="AE62" s="4" t="s">
+        <v>793</v>
       </c>
       <c r="AF62" s="3" t="s">
         <v>761</v>
@@ -10089,7 +10223,7 @@
       <c r="AD63" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="AE63" t="s">
+      <c r="AE63" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF63" s="3" t="s">
@@ -10196,7 +10330,7 @@
       <c r="AD64" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="AE64" t="s">
+      <c r="AE64" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF64" s="3" t="s">
@@ -10303,7 +10437,7 @@
       <c r="AD65" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AE65" t="s">
+      <c r="AE65" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF65" s="3" t="s">
@@ -10410,7 +10544,7 @@
       <c r="AD66" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="AE66" t="s">
+      <c r="AE66" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF66" s="3" t="s">
@@ -10517,7 +10651,7 @@
       <c r="AD67" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AE67" t="s">
+      <c r="AE67" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF67" s="3" t="s">
@@ -10624,7 +10758,7 @@
       <c r="AD68" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AE68" t="s">
+      <c r="AE68" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF68" s="3" t="s">
@@ -10731,8 +10865,8 @@
       <c r="AD69" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="AE69">
-        <v>2095.1</v>
+      <c r="AE69" s="4" t="s">
+        <v>794</v>
       </c>
       <c r="AF69" t="s">
         <v>762</v>
@@ -10838,8 +10972,8 @@
       <c r="AD70" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="AE70">
-        <v>2096.1999999999998</v>
+      <c r="AE70" s="4" t="s">
+        <v>795</v>
       </c>
       <c r="AF70" t="s">
         <v>747</v>
@@ -10945,7 +11079,7 @@
       <c r="AD71" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AE71" t="s">
+      <c r="AE71" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF71" t="s">
@@ -11052,7 +11186,7 @@
       <c r="AD72" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AE72" t="s">
+      <c r="AE72" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF72" t="s">
@@ -11159,7 +11293,7 @@
       <c r="AD73" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AE73" t="s">
+      <c r="AE73" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF73" t="s">
@@ -11266,7 +11400,7 @@
       <c r="AD74" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AE74" t="s">
+      <c r="AE74" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF74" t="s">
@@ -11373,7 +11507,7 @@
       <c r="AD75" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AE75" t="s">
+      <c r="AE75" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF75" t="s">
@@ -11480,7 +11614,7 @@
       <c r="AD76" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AE76" t="s">
+      <c r="AE76" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF76" t="s">
@@ -11587,7 +11721,7 @@
       <c r="AD77" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AE77" t="s">
+      <c r="AE77" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF77" t="s">
@@ -11694,7 +11828,7 @@
       <c r="AD78" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AE78" t="s">
+      <c r="AE78" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF78" t="s">
@@ -11801,7 +11935,7 @@
       <c r="AD79" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AE79" t="s">
+      <c r="AE79" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF79" t="s">
@@ -11908,7 +12042,7 @@
       <c r="AD80" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AE80" t="s">
+      <c r="AE80" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF80" t="s">
@@ -12015,7 +12149,7 @@
       <c r="AD81" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AE81" t="s">
+      <c r="AE81" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF81" t="s">
@@ -12122,7 +12256,7 @@
       <c r="AD82" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AE82" t="s">
+      <c r="AE82" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF82" t="s">
@@ -12229,7 +12363,7 @@
       <c r="AD83" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="AE83" t="s">
+      <c r="AE83" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF83" t="s">
@@ -12336,7 +12470,7 @@
       <c r="AD84" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AE84" t="s">
+      <c r="AE84" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF84" t="s">
@@ -12443,7 +12577,7 @@
       <c r="AD85" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="AE85" t="s">
+      <c r="AE85" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF85" t="s">
@@ -12550,7 +12684,7 @@
       <c r="AD86" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="AE86" t="s">
+      <c r="AE86" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF86" t="s">
@@ -12657,7 +12791,7 @@
       <c r="AD87" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="AE87" t="s">
+      <c r="AE87" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF87" t="s">
@@ -12764,7 +12898,7 @@
       <c r="AD88" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="AE88" t="s">
+      <c r="AE88" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF88" t="s">
@@ -12871,7 +13005,7 @@
       <c r="AD89" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="AE89" t="s">
+      <c r="AE89" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF89" t="s">
@@ -12978,8 +13112,8 @@
       <c r="AD90" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="AE90">
-        <v>2102.1</v>
+      <c r="AE90" s="4" t="s">
+        <v>796</v>
       </c>
       <c r="AF90" t="s">
         <v>750</v>
@@ -13085,8 +13219,8 @@
       <c r="AD91" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="AE91">
-        <v>2102.1999999999998</v>
+      <c r="AE91" s="4" t="s">
+        <v>797</v>
       </c>
       <c r="AF91" t="s">
         <v>749</v>
@@ -13192,7 +13326,7 @@
       <c r="AD92" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="AE92" t="s">
+      <c r="AE92" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF92" t="s">
@@ -13299,7 +13433,7 @@
       <c r="AD93" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="AE93" t="s">
+      <c r="AE93" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF93" t="s">
@@ -13406,7 +13540,7 @@
       <c r="AD94" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="AE94" t="s">
+      <c r="AE94" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF94" t="s">
@@ -13513,7 +13647,7 @@
       <c r="AD95" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="AE95" t="s">
+      <c r="AE95" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF95" t="s">
@@ -13620,8 +13754,8 @@
       <c r="AD96" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="AE96">
-        <v>2216.1</v>
+      <c r="AE96" s="4" t="s">
+        <v>798</v>
       </c>
       <c r="AF96" t="s">
         <v>745</v>
@@ -13727,7 +13861,7 @@
       <c r="AD97" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="AE97" t="s">
+      <c r="AE97" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF97" t="s">
@@ -13834,7 +13968,7 @@
       <c r="AD98" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="AE98" t="s">
+      <c r="AE98" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF98" t="s">
@@ -13941,7 +14075,7 @@
       <c r="AD99" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="AE99" t="s">
+      <c r="AE99" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF99" t="s">
@@ -14048,7 +14182,7 @@
       <c r="AD100" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="AE100" t="s">
+      <c r="AE100" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF100" t="s">
@@ -14155,7 +14289,7 @@
       <c r="AD101" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AE101" t="s">
+      <c r="AE101" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF101" t="s">
@@ -14262,7 +14396,7 @@
       <c r="AD102" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="AE102" t="s">
+      <c r="AE102" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF102" t="s">
@@ -14369,7 +14503,7 @@
       <c r="AD103" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="AE103" t="s">
+      <c r="AE103" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF103" t="s">
@@ -14476,7 +14610,7 @@
       <c r="AD104" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="AE104" t="s">
+      <c r="AE104" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF104" t="s">
@@ -14583,7 +14717,7 @@
       <c r="AD105" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="AE105" t="s">
+      <c r="AE105" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF105" t="s">
@@ -14690,7 +14824,7 @@
       <c r="AD106" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AE106" t="s">
+      <c r="AE106" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF106" t="s">
@@ -14797,7 +14931,7 @@
       <c r="AD107" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="AE107" t="s">
+      <c r="AE107" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF107" t="s">
@@ -14904,7 +15038,7 @@
       <c r="AD108" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="AE108" t="s">
+      <c r="AE108" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF108" t="s">
@@ -15011,7 +15145,7 @@
       <c r="AD109" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AE109" t="s">
+      <c r="AE109" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF109" t="s">
@@ -15118,7 +15252,7 @@
       <c r="AD110" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AE110" t="s">
+      <c r="AE110" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF110" t="s">
@@ -15225,7 +15359,7 @@
       <c r="AD111" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AE111" t="s">
+      <c r="AE111" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF111" t="s">
@@ -15332,7 +15466,7 @@
       <c r="AD112" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AE112" t="s">
+      <c r="AE112" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF112" t="s">
@@ -15439,7 +15573,7 @@
       <c r="AD113" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AE113" t="s">
+      <c r="AE113" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF113" t="s">
@@ -15546,7 +15680,7 @@
       <c r="AD114" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AE114" t="s">
+      <c r="AE114" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF114" t="s">
@@ -15653,7 +15787,7 @@
       <c r="AD115" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AE115" t="s">
+      <c r="AE115" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF115" t="s">
@@ -15760,7 +15894,7 @@
       <c r="AD116" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AE116" t="s">
+      <c r="AE116" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF116" t="s">
@@ -15867,7 +16001,7 @@
       <c r="AD117" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AE117" t="s">
+      <c r="AE117" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF117" t="s">
@@ -15974,7 +16108,7 @@
       <c r="AD118" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AE118" t="s">
+      <c r="AE118" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF118" t="s">
@@ -16081,7 +16215,7 @@
       <c r="AD119" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AE119" t="s">
+      <c r="AE119" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF119" t="s">
@@ -16188,7 +16322,7 @@
       <c r="AD120" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AE120" t="s">
+      <c r="AE120" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF120" t="s">
@@ -16295,7 +16429,7 @@
       <c r="AD121" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AE121" t="s">
+      <c r="AE121" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF121" t="s">
@@ -16402,7 +16536,7 @@
       <c r="AD122" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AE122" t="s">
+      <c r="AE122" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF122" t="s">
@@ -16509,7 +16643,7 @@
       <c r="AD123" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AE123" t="s">
+      <c r="AE123" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF123" t="s">
@@ -16616,7 +16750,7 @@
       <c r="AD124" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AE124" t="s">
+      <c r="AE124" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF124" t="s">
@@ -16723,7 +16857,7 @@
       <c r="AD125" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AE125" t="s">
+      <c r="AE125" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF125" t="s">
@@ -16830,7 +16964,7 @@
       <c r="AD126" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AE126" t="s">
+      <c r="AE126" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF126" t="s">
@@ -16937,7 +17071,7 @@
       <c r="AD127" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AE127" t="s">
+      <c r="AE127" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF127" t="s">
@@ -17044,7 +17178,7 @@
       <c r="AD128" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AE128" t="s">
+      <c r="AE128" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF128" t="s">
@@ -17151,7 +17285,7 @@
       <c r="AD129" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AE129" t="s">
+      <c r="AE129" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF129" t="s">
@@ -17258,7 +17392,7 @@
       <c r="AD130" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AE130" t="s">
+      <c r="AE130" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF130" t="s">
@@ -17365,7 +17499,7 @@
       <c r="AD131" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AE131" t="s">
+      <c r="AE131" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF131" t="s">
@@ -17472,7 +17606,7 @@
       <c r="AD132" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AE132" t="s">
+      <c r="AE132" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF132" t="s">
@@ -17579,7 +17713,7 @@
       <c r="AD133" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AE133" t="s">
+      <c r="AE133" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF133" t="s">
@@ -17686,7 +17820,7 @@
       <c r="AD134" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AE134" t="s">
+      <c r="AE134" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF134" t="s">
@@ -17793,7 +17927,7 @@
       <c r="AD135" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AE135" t="s">
+      <c r="AE135" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF135" t="s">
@@ -17900,7 +18034,7 @@
       <c r="AD136" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AE136" t="s">
+      <c r="AE136" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF136" t="s">
@@ -18007,7 +18141,7 @@
       <c r="AD137" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AE137" t="s">
+      <c r="AE137" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF137" t="s">
@@ -18114,7 +18248,7 @@
       <c r="AD138" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AE138" t="s">
+      <c r="AE138" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF138" t="s">
@@ -18221,7 +18355,7 @@
       <c r="AD139" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AE139" t="s">
+      <c r="AE139" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF139" t="s">
@@ -18328,7 +18462,7 @@
       <c r="AD140" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AE140" t="s">
+      <c r="AE140" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF140" t="s">
@@ -18435,7 +18569,7 @@
       <c r="AD141" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AE141" t="s">
+      <c r="AE141" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF141" t="s">
@@ -18542,7 +18676,7 @@
       <c r="AD142" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AE142" t="s">
+      <c r="AE142" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF142" t="s">
@@ -18649,7 +18783,7 @@
       <c r="AD143" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AE143" t="s">
+      <c r="AE143" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF143" t="s">
@@ -18756,7 +18890,7 @@
       <c r="AD144" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AE144" t="s">
+      <c r="AE144" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF144" t="s">
@@ -18863,7 +18997,7 @@
       <c r="AD145" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AE145" t="s">
+      <c r="AE145" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF145" t="s">
@@ -18970,7 +19104,7 @@
       <c r="AD146" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AE146" t="s">
+      <c r="AE146" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF146" t="s">
@@ -19077,7 +19211,7 @@
       <c r="AD147" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="AE147" t="s">
+      <c r="AE147" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF147" t="s">
@@ -19184,7 +19318,7 @@
       <c r="AD148" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="AE148" t="s">
+      <c r="AE148" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF148" t="s">
@@ -19291,7 +19425,7 @@
       <c r="AD149" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="AE149" t="s">
+      <c r="AE149" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF149" t="s">
@@ -19398,7 +19532,7 @@
       <c r="AD150" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="AE150" t="s">
+      <c r="AE150" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF150" t="s">
@@ -19505,7 +19639,7 @@
       <c r="AD151" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="AE151" t="s">
+      <c r="AE151" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF151" t="s">
@@ -19612,7 +19746,7 @@
       <c r="AD152" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="AE152" t="s">
+      <c r="AE152" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF152" t="s">
@@ -19719,8 +19853,8 @@
       <c r="AD153" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="AE153">
-        <v>2217.11</v>
+      <c r="AE153" s="4" t="s">
+        <v>799</v>
       </c>
       <c r="AF153" t="s">
         <v>755</v>
@@ -19826,7 +19960,7 @@
       <c r="AD154" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="AE154" t="s">
+      <c r="AE154" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF154" t="s">
@@ -19933,7 +20067,7 @@
       <c r="AD155" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="AE155" t="s">
+      <c r="AE155" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF155" t="s">
@@ -20040,7 +20174,7 @@
       <c r="AD156" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="AE156" t="s">
+      <c r="AE156" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF156" t="s">
@@ -20147,7 +20281,7 @@
       <c r="AD157" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="AE157" t="s">
+      <c r="AE157" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF157" t="s">
@@ -20254,7 +20388,7 @@
       <c r="AD158" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="AE158" t="s">
+      <c r="AE158" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF158" t="s">
@@ -20361,7 +20495,7 @@
       <c r="AD159" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="AE159" t="s">
+      <c r="AE159" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF159" t="s">
@@ -20468,7 +20602,7 @@
       <c r="AD160" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="AE160" t="s">
+      <c r="AE160" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF160" t="s">
@@ -20575,7 +20709,7 @@
       <c r="AD161" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="AE161" t="s">
+      <c r="AE161" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF161" t="s">
@@ -20682,7 +20816,7 @@
       <c r="AD162" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="AE162" t="s">
+      <c r="AE162" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF162" t="s">
@@ -20789,8 +20923,8 @@
       <c r="AD163" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="AE163">
-        <v>2217.12</v>
+      <c r="AE163" s="4" t="s">
+        <v>800</v>
       </c>
       <c r="AF163" t="s">
         <v>754</v>
@@ -20896,7 +21030,7 @@
       <c r="AD164" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="AE164" t="s">
+      <c r="AE164" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF164" t="s">
@@ -21003,7 +21137,7 @@
       <c r="AD165" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="AE165" t="s">
+      <c r="AE165" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF165" t="s">
@@ -21110,7 +21244,7 @@
       <c r="AD166" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="AE166" t="s">
+      <c r="AE166" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF166" t="s">
@@ -21217,7 +21351,7 @@
       <c r="AD167" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="AE167" t="s">
+      <c r="AE167" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF167" t="s">
@@ -21324,7 +21458,7 @@
       <c r="AD168" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="AE168" t="s">
+      <c r="AE168" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF168" t="s">
@@ -21431,8 +21565,8 @@
       <c r="AD169" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="AE169" s="3">
-        <v>2217.13</v>
+      <c r="AE169" s="5" t="s">
+        <v>801</v>
       </c>
       <c r="AF169" t="s">
         <v>773</v>
@@ -21538,7 +21672,7 @@
       <c r="AD170" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="AE170" t="s">
+      <c r="AE170" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF170" t="s">
@@ -21645,7 +21779,7 @@
       <c r="AD171" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="AE171" t="s">
+      <c r="AE171" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF171" t="s">
@@ -21752,8 +21886,8 @@
       <c r="AD172" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="AE172">
-        <v>2217.14</v>
+      <c r="AE172" s="4" t="s">
+        <v>802</v>
       </c>
       <c r="AF172" t="s">
         <v>753</v>
@@ -21859,7 +21993,7 @@
       <c r="AD173" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="AE173" t="s">
+      <c r="AE173" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF173" t="s">
@@ -21966,7 +22100,7 @@
       <c r="AD174" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="AE174" t="s">
+      <c r="AE174" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF174" t="s">
@@ -22073,7 +22207,7 @@
       <c r="AD175" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="AE175" t="s">
+      <c r="AE175" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF175" t="s">
@@ -22180,8 +22314,8 @@
       <c r="AD176" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="AE176">
-        <v>2217.3000000000002</v>
+      <c r="AE176" s="4" t="s">
+        <v>803</v>
       </c>
       <c r="AF176" t="s">
         <v>751</v>
@@ -22287,8 +22421,8 @@
       <c r="AD177" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="AE177">
-        <v>2217.8000000000002</v>
+      <c r="AE177" s="4" t="s">
+        <v>804</v>
       </c>
       <c r="AF177" t="s">
         <v>752</v>
@@ -22394,8 +22528,8 @@
       <c r="AD178" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AE178" s="3">
-        <v>2289.1</v>
+      <c r="AE178" s="5" t="s">
+        <v>805</v>
       </c>
       <c r="AF178" s="3" t="s">
         <v>780</v>
@@ -22501,8 +22635,8 @@
       <c r="AD179" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AE179" s="3">
-        <v>2289.3000000000002</v>
+      <c r="AE179" s="5" t="s">
+        <v>806</v>
       </c>
       <c r="AF179" s="3" t="s">
         <v>774</v>
@@ -22608,8 +22742,8 @@
       <c r="AD180" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AE180">
-        <v>2291.1</v>
+      <c r="AE180" s="4" t="s">
+        <v>807</v>
       </c>
       <c r="AF180" t="s">
         <v>739</v>
@@ -22715,8 +22849,8 @@
       <c r="AD181" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AE181">
-        <v>2293.1</v>
+      <c r="AE181" s="4" t="s">
+        <v>808</v>
       </c>
       <c r="AF181" t="s">
         <v>740</v>
@@ -22822,7 +22956,7 @@
       <c r="AD182" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="AE182" t="s">
+      <c r="AE182" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF182" t="s">
@@ -22929,7 +23063,7 @@
       <c r="AD183" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="AE183" t="s">
+      <c r="AE183" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF183" t="s">
@@ -23036,7 +23170,7 @@
       <c r="AD184" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="AE184" t="s">
+      <c r="AE184" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF184" t="s">
@@ -23143,7 +23277,7 @@
       <c r="AD185" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="AE185" t="s">
+      <c r="AE185" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF185" t="s">
@@ -23250,7 +23384,7 @@
       <c r="AD186" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="AE186" t="s">
+      <c r="AE186" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF186" t="s">
@@ -23357,7 +23491,7 @@
       <c r="AD187" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="AE187" t="s">
+      <c r="AE187" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF187" t="s">
@@ -23464,7 +23598,7 @@
       <c r="AD188" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="AE188" t="s">
+      <c r="AE188" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF188" t="s">
@@ -23571,7 +23705,7 @@
       <c r="AD189" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="AE189" t="s">
+      <c r="AE189" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF189" t="s">
@@ -23678,7 +23812,7 @@
       <c r="AD190" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="AE190" t="s">
+      <c r="AE190" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF190" t="s">
@@ -23785,7 +23919,7 @@
       <c r="AD191" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="AE191" t="s">
+      <c r="AE191" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF191" t="s">
@@ -23892,7 +24026,7 @@
       <c r="AD192" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="AE192" t="s">
+      <c r="AE192" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF192" t="s">
@@ -23999,7 +24133,7 @@
       <c r="AD193" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="AE193" t="s">
+      <c r="AE193" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF193" t="s">
@@ -24106,7 +24240,7 @@
       <c r="AD194" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="AE194" t="s">
+      <c r="AE194" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF194" t="s">
@@ -24213,8 +24347,8 @@
       <c r="AD195" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="AE195">
-        <v>2323.1</v>
+      <c r="AE195" s="4" t="s">
+        <v>809</v>
       </c>
       <c r="AF195" s="3" t="s">
         <v>744</v>
@@ -24320,7 +24454,7 @@
       <c r="AD196" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="AE196" t="s">
+      <c r="AE196" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF196" s="3" t="s">
@@ -24427,7 +24561,7 @@
       <c r="AD197" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="AE197" t="s">
+      <c r="AE197" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF197" s="3" t="s">
@@ -24534,8 +24668,8 @@
       <c r="AD198" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="AE198">
-        <v>2337.1</v>
+      <c r="AE198" s="4" t="s">
+        <v>810</v>
       </c>
       <c r="AF198" s="3" t="s">
         <v>775</v>
@@ -24641,7 +24775,7 @@
       <c r="AD199" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="AE199" t="s">
+      <c r="AE199" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF199" s="3" t="s">
@@ -24748,7 +24882,7 @@
       <c r="AD200" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="AE200" t="s">
+      <c r="AE200" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF200" s="3" t="s">
@@ -24855,7 +24989,7 @@
       <c r="AD201" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="AE201" t="s">
+      <c r="AE201" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF201" s="3" t="s">
@@ -24962,7 +25096,7 @@
       <c r="AD202" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="AE202" t="s">
+      <c r="AE202" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF202" s="3" t="s">
@@ -25069,7 +25203,7 @@
       <c r="AD203" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="AE203" t="s">
+      <c r="AE203" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF203" s="3" t="s">
@@ -25176,7 +25310,7 @@
       <c r="AD204" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="AE204" t="s">
+      <c r="AE204" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF204" s="3" t="s">
@@ -25283,7 +25417,7 @@
       <c r="AD205" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="AE205" t="s">
+      <c r="AE205" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF205" s="3" t="s">
@@ -25390,7 +25524,7 @@
       <c r="AD206" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="AE206" t="s">
+      <c r="AE206" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF206" s="3" t="s">
@@ -25497,7 +25631,7 @@
       <c r="AD207" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="AE207" t="s">
+      <c r="AE207" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF207" s="3" t="s">
@@ -25604,7 +25738,7 @@
       <c r="AD208" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="AE208" t="s">
+      <c r="AE208" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF208" s="3" t="s">
@@ -25711,7 +25845,7 @@
       <c r="AD209" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="AE209" t="s">
+      <c r="AE209" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF209" s="3" t="s">
@@ -25818,7 +25952,7 @@
       <c r="AD210" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="AE210" t="s">
+      <c r="AE210" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF210" s="3" t="s">
@@ -25925,7 +26059,7 @@
       <c r="AD211" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="AE211" t="s">
+      <c r="AE211" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF211" s="3" t="s">
@@ -26032,7 +26166,7 @@
       <c r="AD212" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="AE212" t="s">
+      <c r="AE212" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF212" s="3" t="s">
@@ -26139,7 +26273,7 @@
       <c r="AD213" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="AE213" t="s">
+      <c r="AE213" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF213" s="3" t="s">
@@ -26246,7 +26380,7 @@
       <c r="AD214" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="AE214" t="s">
+      <c r="AE214" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF214" s="3" t="s">
@@ -26353,7 +26487,7 @@
       <c r="AD215" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="AE215" t="s">
+      <c r="AE215" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF215" s="3" t="s">
@@ -26460,7 +26594,7 @@
       <c r="AD216" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="AE216" t="s">
+      <c r="AE216" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF216" s="3" t="s">
@@ -26567,7 +26701,7 @@
       <c r="AD217" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="AE217" t="s">
+      <c r="AE217" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF217" s="3" t="s">
@@ -26674,7 +26808,7 @@
       <c r="AD218" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="AE218" t="s">
+      <c r="AE218" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF218" s="3" t="s">
@@ -26781,7 +26915,7 @@
       <c r="AD219" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="AE219" t="s">
+      <c r="AE219" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF219" s="3" t="s">
@@ -26888,8 +27022,8 @@
       <c r="AD220" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="AE220">
-        <v>2406.1999999999998</v>
+      <c r="AE220" s="4" t="s">
+        <v>811</v>
       </c>
       <c r="AF220" t="s">
         <v>746</v>
@@ -26995,7 +27129,7 @@
       <c r="AD221" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="AE221" t="s">
+      <c r="AE221" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF221" t="s">
@@ -27102,7 +27236,7 @@
       <c r="AD222" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="AE222" t="s">
+      <c r="AE222" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF222" t="s">
@@ -27209,7 +27343,7 @@
       <c r="AD223" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="AE223" t="s">
+      <c r="AE223" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF223" t="s">
@@ -27316,8 +27450,8 @@
       <c r="AD224" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="AE224">
-        <v>2407.1</v>
+      <c r="AE224" s="4" t="s">
+        <v>812</v>
       </c>
       <c r="AF224" s="3" t="s">
         <v>763</v>
@@ -27423,7 +27557,7 @@
       <c r="AD225" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="AE225" t="s">
+      <c r="AE225" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF225" s="3" t="s">
@@ -27530,7 +27664,7 @@
       <c r="AD226" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="AE226" t="s">
+      <c r="AE226" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF226" s="3" t="s">
@@ -27637,7 +27771,7 @@
       <c r="AD227" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="AE227" t="s">
+      <c r="AE227" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF227" s="3" t="s">
@@ -27744,7 +27878,7 @@
       <c r="AD228" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="AE228" t="s">
+      <c r="AE228" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF228" s="3" t="s">
@@ -27851,8 +27985,8 @@
       <c r="AD229" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="AE229">
-        <v>2409.1</v>
+      <c r="AE229" s="4" t="s">
+        <v>813</v>
       </c>
       <c r="AF229" s="3" t="s">
         <v>764</v>
@@ -27958,7 +28092,7 @@
       <c r="AD230" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="AE230" t="s">
+      <c r="AE230" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF230" s="3" t="s">
@@ -28065,7 +28199,7 @@
       <c r="AD231" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="AE231" t="s">
+      <c r="AE231" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF231" s="3" t="s">
@@ -28172,7 +28306,7 @@
       <c r="AD232" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="AE232" t="s">
+      <c r="AE232" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF232" s="3" t="s">
@@ -28279,7 +28413,7 @@
       <c r="AD233" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="AE233" t="s">
+      <c r="AE233" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF233" s="3" t="s">
@@ -28386,7 +28520,7 @@
       <c r="AD234" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="AE234" t="s">
+      <c r="AE234" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF234" s="3" t="s">
@@ -28493,8 +28627,8 @@
       <c r="AD235" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="AE235">
-        <v>2410.1</v>
+      <c r="AE235" s="4" t="s">
+        <v>814</v>
       </c>
       <c r="AF235" s="3" t="s">
         <v>765</v>
@@ -28600,7 +28734,7 @@
       <c r="AD236" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="AE236" t="s">
+      <c r="AE236" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF236" s="3" t="s">
@@ -28707,7 +28841,7 @@
       <c r="AD237" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="AE237" t="s">
+      <c r="AE237" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF237" s="3" t="s">
@@ -28814,8 +28948,8 @@
       <c r="AD238" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="AE238">
-        <v>2415.1</v>
+      <c r="AE238" s="4" t="s">
+        <v>815</v>
       </c>
       <c r="AF238" s="3" t="s">
         <v>766</v>
@@ -28921,8 +29055,8 @@
       <c r="AD239" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="AE239">
-        <v>2416.1</v>
+      <c r="AE239" s="4" t="s">
+        <v>816</v>
       </c>
       <c r="AF239" s="3" t="s">
         <v>767</v>
@@ -29028,7 +29162,7 @@
       <c r="AD240" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="AE240" t="s">
+      <c r="AE240" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF240" s="3" t="s">
@@ -29135,7 +29269,7 @@
       <c r="AD241" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="AE241" t="s">
+      <c r="AE241" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF241" s="3" t="s">
@@ -29242,7 +29376,7 @@
       <c r="AD242" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="AE242" t="s">
+      <c r="AE242" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF242" s="3" t="s">
@@ -29349,7 +29483,7 @@
       <c r="AD243" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="AE243" t="s">
+      <c r="AE243" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF243" s="3" t="s">
@@ -29456,7 +29590,7 @@
       <c r="AD244" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="AE244" t="s">
+      <c r="AE244" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF244" s="3" t="s">
@@ -29563,7 +29697,7 @@
       <c r="AD245" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="AE245" t="s">
+      <c r="AE245" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF245" s="3" t="s">
@@ -29670,7 +29804,7 @@
       <c r="AD246" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="AE246" t="s">
+      <c r="AE246" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF246" s="3" t="s">
@@ -29777,7 +29911,7 @@
       <c r="AD247" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="AE247" t="s">
+      <c r="AE247" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF247" s="3" t="s">
@@ -29884,7 +30018,7 @@
       <c r="AD248" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="AE248" t="s">
+      <c r="AE248" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF248" s="3" t="s">
@@ -29991,7 +30125,7 @@
       <c r="AD249" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="AE249" t="s">
+      <c r="AE249" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF249" s="3" t="s">
@@ -30098,7 +30232,7 @@
       <c r="AD250" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="AE250" t="s">
+      <c r="AE250" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF250" s="3" t="s">
@@ -30205,7 +30339,7 @@
       <c r="AD251" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="AE251" t="s">
+      <c r="AE251" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF251" s="3" t="s">
@@ -30312,7 +30446,7 @@
       <c r="AD252" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="AE252" t="s">
+      <c r="AE252" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF252" s="3" t="s">
@@ -30419,7 +30553,7 @@
       <c r="AD253" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="AE253" t="s">
+      <c r="AE253" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF253" s="3" t="s">
@@ -30526,7 +30660,7 @@
       <c r="AD254" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="AE254" t="s">
+      <c r="AE254" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF254" s="3" t="s">
@@ -30633,7 +30767,7 @@
       <c r="AD255" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="AE255" t="s">
+      <c r="AE255" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF255" s="3" t="s">
@@ -30740,7 +30874,7 @@
       <c r="AD256" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="AE256" t="s">
+      <c r="AE256" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF256" s="3" t="s">
@@ -30847,7 +30981,7 @@
       <c r="AD257" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="AE257" t="s">
+      <c r="AE257" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF257" s="3" t="s">
@@ -30954,7 +31088,7 @@
       <c r="AD258" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="AE258" t="s">
+      <c r="AE258" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF258" s="3" t="s">
@@ -31061,7 +31195,7 @@
       <c r="AD259" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="AE259" t="s">
+      <c r="AE259" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF259" s="3" t="s">
@@ -31168,7 +31302,7 @@
       <c r="AD260" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="AE260" t="s">
+      <c r="AE260" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF260" s="3" t="s">
@@ -31275,8 +31409,8 @@
       <c r="AD261" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="AE261">
-        <v>2424.1</v>
+      <c r="AE261" s="4" t="s">
+        <v>817</v>
       </c>
       <c r="AF261" s="3" t="s">
         <v>768</v>
@@ -31382,7 +31516,7 @@
       <c r="AD262" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="AE262" t="s">
+      <c r="AE262" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF262" s="3" t="s">
@@ -31489,7 +31623,7 @@
       <c r="AD263" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="AE263" t="s">
+      <c r="AE263" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF263" s="3" t="s">
@@ -31596,7 +31730,7 @@
       <c r="AD264" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="AE264" t="s">
+      <c r="AE264" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF264" s="3" t="s">
@@ -31703,7 +31837,7 @@
       <c r="AD265" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="AE265" t="s">
+      <c r="AE265" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF265" s="3" t="s">
@@ -31810,7 +31944,7 @@
       <c r="AD266" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="AE266" t="s">
+      <c r="AE266" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF266" s="3" t="s">
@@ -31917,7 +32051,7 @@
       <c r="AD267" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="AE267" t="s">
+      <c r="AE267" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF267" s="3" t="s">
@@ -32024,7 +32158,7 @@
       <c r="AD268" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="AE268" t="s">
+      <c r="AE268" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF268" s="3" t="s">
@@ -32131,7 +32265,7 @@
       <c r="AD269" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="AE269" t="s">
+      <c r="AE269" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF269" s="3" t="s">
@@ -32238,7 +32372,7 @@
       <c r="AD270" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="AE270" t="s">
+      <c r="AE270" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF270" s="3" t="s">
@@ -32345,7 +32479,7 @@
       <c r="AD271" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="AE271" t="s">
+      <c r="AE271" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF271" s="3" t="s">
@@ -32452,7 +32586,7 @@
       <c r="AD272" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="AE272" t="s">
+      <c r="AE272" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF272" s="3" t="s">
@@ -32559,7 +32693,7 @@
       <c r="AD273" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="AE273" t="s">
+      <c r="AE273" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF273" s="3" t="s">
@@ -32666,7 +32800,7 @@
       <c r="AD274" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="AE274" t="s">
+      <c r="AE274" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF274" s="3" t="s">
@@ -32773,7 +32907,7 @@
       <c r="AD275" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="AE275" t="s">
+      <c r="AE275" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF275" s="3" t="s">
@@ -32880,7 +33014,7 @@
       <c r="AD276" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="AE276" t="s">
+      <c r="AE276" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF276" s="3" t="s">
@@ -32987,8 +33121,8 @@
       <c r="AD277" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="AE277">
-        <v>2432.1</v>
+      <c r="AE277" s="4" t="s">
+        <v>818</v>
       </c>
       <c r="AF277" s="3" t="s">
         <v>769</v>
@@ -33094,7 +33228,7 @@
       <c r="AD278" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="AE278" t="s">
+      <c r="AE278" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF278" s="3" t="s">
@@ -33201,7 +33335,7 @@
       <c r="AD279" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="AE279" t="s">
+      <c r="AE279" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF279" s="3" t="s">
@@ -33308,7 +33442,7 @@
       <c r="AD280" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="AE280" t="s">
+      <c r="AE280" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF280" s="3" t="s">
@@ -33415,7 +33549,7 @@
       <c r="AD281" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="AE281" t="s">
+      <c r="AE281" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF281" s="3" t="s">
@@ -33522,7 +33656,7 @@
       <c r="AD282" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="AE282" t="s">
+      <c r="AE282" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF282" s="3" t="s">
@@ -33629,8 +33763,8 @@
       <c r="AD283" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="AE283">
-        <v>2446.1</v>
+      <c r="AE283" s="4" t="s">
+        <v>819</v>
       </c>
       <c r="AF283" t="s">
         <v>777</v>
@@ -33736,8 +33870,8 @@
       <c r="AD284" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="AE284">
-        <v>2446.1999999999998</v>
+      <c r="AE284" s="4" t="s">
+        <v>820</v>
       </c>
       <c r="AF284" s="3" t="s">
         <v>776</v>
@@ -33843,7 +33977,7 @@
       <c r="AD285" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="AE285" t="s">
+      <c r="AE285" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF285" s="3" t="s">
@@ -33950,7 +34084,7 @@
       <c r="AD286" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="AE286" t="s">
+      <c r="AE286" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF286" s="3" t="s">
@@ -34057,7 +34191,7 @@
       <c r="AD287" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AE287" t="s">
+      <c r="AE287" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF287" s="3" t="s">
@@ -34164,7 +34298,7 @@
       <c r="AD288" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="AE288" t="s">
+      <c r="AE288" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF288" s="3" t="s">
@@ -34271,8 +34405,8 @@
       <c r="AD289" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AE289">
-        <v>2451.1</v>
+      <c r="AE289" s="4" t="s">
+        <v>821</v>
       </c>
       <c r="AF289" t="s">
         <v>758</v>
@@ -34378,7 +34512,7 @@
       <c r="AD290" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="AE290" t="s">
+      <c r="AE290" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF290" t="s">
@@ -34485,7 +34619,7 @@
       <c r="AD291" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="AE291" t="s">
+      <c r="AE291" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF291" t="s">
@@ -34592,7 +34726,7 @@
       <c r="AD292" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="AE292" t="s">
+      <c r="AE292" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF292" t="s">
@@ -34699,7 +34833,7 @@
       <c r="AD293" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="AE293" t="s">
+      <c r="AE293" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF293" t="s">
@@ -34806,7 +34940,7 @@
       <c r="AD294" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="AE294" t="s">
+      <c r="AE294" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF294" t="s">
@@ -34913,7 +35047,7 @@
       <c r="AD295" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="AE295" t="s">
+      <c r="AE295" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF295" t="s">
@@ -35020,7 +35154,7 @@
       <c r="AD296" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="AE296" t="s">
+      <c r="AE296" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF296" t="s">
@@ -35127,7 +35261,7 @@
       <c r="AD297" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="AE297" t="s">
+      <c r="AE297" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF297" t="s">
@@ -35234,7 +35368,7 @@
       <c r="AD298" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="AE298" t="s">
+      <c r="AE298" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF298" t="s">
@@ -35341,7 +35475,7 @@
       <c r="AD299" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="AE299" t="s">
+      <c r="AE299" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF299" t="s">
@@ -35448,7 +35582,7 @@
       <c r="AD300" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="AE300" t="s">
+      <c r="AE300" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF300" t="s">
@@ -35555,7 +35689,7 @@
       <c r="AD301" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="AE301" t="s">
+      <c r="AE301" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF301" t="s">
@@ -35662,7 +35796,7 @@
       <c r="AD302" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="AE302" t="s">
+      <c r="AE302" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF302" t="s">
@@ -35769,7 +35903,7 @@
       <c r="AD303" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="AE303" t="s">
+      <c r="AE303" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF303" t="s">
@@ -35876,7 +36010,7 @@
       <c r="AD304" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="AE304" t="s">
+      <c r="AE304" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF304" t="s">
@@ -35983,7 +36117,7 @@
       <c r="AD305" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="AE305" t="s">
+      <c r="AE305" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF305" t="s">
@@ -36090,7 +36224,7 @@
       <c r="AD306" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="AE306" t="s">
+      <c r="AE306" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF306" t="s">
@@ -36197,7 +36331,7 @@
       <c r="AD307" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="AE307" t="s">
+      <c r="AE307" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF307" t="s">
@@ -36304,8 +36438,8 @@
       <c r="AD308" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AE308">
-        <v>2451.1999999999998</v>
+      <c r="AE308" s="4" t="s">
+        <v>822</v>
       </c>
       <c r="AF308" t="s">
         <v>757</v>
@@ -36411,7 +36545,7 @@
       <c r="AD309" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="AE309" t="s">
+      <c r="AE309" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF309" t="s">
@@ -36518,8 +36652,8 @@
       <c r="AD310" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="AE310">
-        <v>2455.1</v>
+      <c r="AE310" s="4" t="s">
+        <v>823</v>
       </c>
       <c r="AF310" t="s">
         <v>741</v>
@@ -36625,7 +36759,7 @@
       <c r="AD311" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="AE311" t="s">
+      <c r="AE311" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF311" t="s">
@@ -36732,7 +36866,7 @@
       <c r="AD312" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="AE312" t="s">
+      <c r="AE312" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF312" t="s">
@@ -36839,7 +36973,7 @@
       <c r="AD313" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="AE313" t="s">
+      <c r="AE313" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF313" t="s">
@@ -36946,7 +37080,7 @@
       <c r="AD314" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="AE314" t="s">
+      <c r="AE314" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF314" t="s">
@@ -37053,7 +37187,7 @@
       <c r="AD315" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="AE315" t="s">
+      <c r="AE315" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF315" t="s">
@@ -37160,7 +37294,7 @@
       <c r="AD316" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="AE316" t="s">
+      <c r="AE316" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF316" t="s">
@@ -37267,7 +37401,7 @@
       <c r="AD317" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="AE317" t="s">
+      <c r="AE317" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF317" t="s">
@@ -37374,7 +37508,7 @@
       <c r="AD318" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="AE318" t="s">
+      <c r="AE318" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF318" t="s">
@@ -37481,7 +37615,7 @@
       <c r="AD319" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="AE319" t="s">
+      <c r="AE319" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF319" t="s">
@@ -37588,7 +37722,7 @@
       <c r="AD320" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="AE320" t="s">
+      <c r="AE320" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF320" t="s">
@@ -37695,7 +37829,7 @@
       <c r="AD321" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="AE321" t="s">
+      <c r="AE321" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF321" t="s">
@@ -37802,7 +37936,7 @@
       <c r="AD322" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="AE322" t="s">
+      <c r="AE322" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF322" t="s">
@@ -37909,8 +38043,8 @@
       <c r="AD323" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="AE323">
-        <v>2457.1</v>
+      <c r="AE323" s="4" t="s">
+        <v>824</v>
       </c>
       <c r="AF323" t="s">
         <v>742</v>
@@ -38016,7 +38150,7 @@
       <c r="AD324" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="AE324" t="s">
+      <c r="AE324" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF324" t="s">
@@ -38123,7 +38257,7 @@
       <c r="AD325" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="AE325" t="s">
+      <c r="AE325" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF325" t="s">
@@ -38230,7 +38364,7 @@
       <c r="AD326" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="AE326" t="s">
+      <c r="AE326" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF326" t="s">
@@ -38337,7 +38471,7 @@
       <c r="AD327" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="AE327" t="s">
+      <c r="AE327" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF327" t="s">
@@ -38444,8 +38578,8 @@
       <c r="AD328" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AE328">
-        <v>2460.1</v>
+      <c r="AE328" s="4" t="s">
+        <v>825</v>
       </c>
       <c r="AF328" t="s">
         <v>743</v>
@@ -38551,7 +38685,7 @@
       <c r="AD329" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="AE329" t="s">
+      <c r="AE329" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF329" t="s">
@@ -38658,7 +38792,7 @@
       <c r="AD330" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="AE330" t="s">
+      <c r="AE330" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF330" t="s">
@@ -38765,7 +38899,7 @@
       <c r="AD331" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="AE331" t="s">
+      <c r="AE331" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF331" t="s">
@@ -38872,7 +39006,7 @@
       <c r="AD332" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="AE332" t="s">
+      <c r="AE332" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF332" t="s">
@@ -38979,7 +39113,7 @@
       <c r="AD333" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="AE333" t="s">
+      <c r="AE333" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF333" t="s">
@@ -39086,7 +39220,7 @@
       <c r="AD334" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="AE334" t="s">
+      <c r="AE334" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF334" t="s">
@@ -39193,7 +39327,7 @@
       <c r="AD335" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="AE335" t="s">
+      <c r="AE335" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF335" t="s">
@@ -39300,7 +39434,7 @@
       <c r="AD336" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="AE336" t="s">
+      <c r="AE336" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF336" t="s">
@@ -39407,7 +39541,7 @@
       <c r="AD337" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="AE337" t="s">
+      <c r="AE337" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF337" t="s">
@@ -39514,7 +39648,7 @@
       <c r="AD338" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="AE338" t="s">
+      <c r="AE338" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF338" t="s">
@@ -39621,8 +39755,8 @@
       <c r="AD339" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AE339">
-        <v>2468.1</v>
+      <c r="AE339" s="4" t="s">
+        <v>826</v>
       </c>
       <c r="AF339" s="3" t="s">
         <v>770</v>
@@ -39728,7 +39862,7 @@
       <c r="AD340" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="AE340" t="s">
+      <c r="AE340" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF340" s="3" t="s">
@@ -39835,7 +39969,7 @@
       <c r="AD341" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AE341" t="s">
+      <c r="AE341" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF341" s="3" t="s">
@@ -39942,7 +40076,7 @@
       <c r="AD342" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="AE342" t="s">
+      <c r="AE342" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF342" s="3" t="s">
@@ -40049,7 +40183,7 @@
       <c r="AD343" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="AE343" t="s">
+      <c r="AE343" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF343" s="3" t="s">
@@ -40156,7 +40290,7 @@
       <c r="AD344" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AE344" t="s">
+      <c r="AE344" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF344" s="3" t="s">
@@ -40263,7 +40397,7 @@
       <c r="AD345" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AE345" t="s">
+      <c r="AE345" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF345" s="3" t="s">
@@ -40370,7 +40504,7 @@
       <c r="AD346" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="AE346" t="s">
+      <c r="AE346" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF346" s="3" t="s">
@@ -40477,7 +40611,7 @@
       <c r="AD347" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AE347" t="s">
+      <c r="AE347" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF347" s="3" t="s">
@@ -40584,7 +40718,7 @@
       <c r="AD348" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="AE348" t="s">
+      <c r="AE348" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF348" s="3" t="s">
@@ -40691,7 +40825,7 @@
       <c r="AD349" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="AE349" t="s">
+      <c r="AE349" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF349" s="3" t="s">
@@ -40798,7 +40932,7 @@
       <c r="AD350" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="AE350" t="s">
+      <c r="AE350" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF350" s="3" t="s">
@@ -40905,7 +41039,7 @@
       <c r="AD351" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="AE351" t="s">
+      <c r="AE351" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF351" s="3" t="s">
@@ -41012,7 +41146,7 @@
       <c r="AD352" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="AE352" t="s">
+      <c r="AE352" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF352" s="3" t="s">
@@ -41119,7 +41253,7 @@
       <c r="AD353" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="AE353" t="s">
+      <c r="AE353" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF353" s="3" t="s">
@@ -41226,7 +41360,7 @@
       <c r="AD354" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="AE354" t="s">
+      <c r="AE354" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF354" s="3" t="s">
@@ -41333,7 +41467,7 @@
       <c r="AD355" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="AE355" t="s">
+      <c r="AE355" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF355" s="3" t="s">
@@ -41440,7 +41574,7 @@
       <c r="AD356" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="AE356" t="s">
+      <c r="AE356" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF356" s="3" t="s">
@@ -41547,7 +41681,7 @@
       <c r="AD357" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="AE357" t="s">
+      <c r="AE357" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF357" s="3" t="s">
@@ -41654,7 +41788,7 @@
       <c r="AD358" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="AE358" t="s">
+      <c r="AE358" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF358" s="3" t="s">
@@ -41761,7 +41895,7 @@
       <c r="AD359" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="AE359" t="s">
+      <c r="AE359" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF359" s="3" t="s">
@@ -41868,7 +42002,7 @@
       <c r="AD360" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="AE360" t="s">
+      <c r="AE360" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF360" s="3" t="s">
@@ -41975,8 +42109,8 @@
       <c r="AD361" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AE361">
-        <v>2469.6</v>
+      <c r="AE361" s="4" t="s">
+        <v>827</v>
       </c>
       <c r="AF361" s="3" t="s">
         <v>771</v>
@@ -42082,7 +42216,7 @@
       <c r="AD362" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="AE362" t="s">
+      <c r="AE362" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF362" s="3" t="s">
@@ -42189,8 +42323,8 @@
       <c r="AD363" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AE363">
-        <v>2472.1</v>
+      <c r="AE363" s="4" t="s">
+        <v>828</v>
       </c>
       <c r="AF363" s="3" t="s">
         <v>772</v>
@@ -42296,8 +42430,8 @@
       <c r="AD364" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="AE364">
-        <v>2480.3000000000002</v>
+      <c r="AE364" s="4" t="s">
+        <v>829</v>
       </c>
       <c r="AF364" t="s">
         <v>748</v>
@@ -42403,7 +42537,7 @@
       <c r="AD365" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="AE365" t="s">
+      <c r="AE365" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF365" t="s">
@@ -42510,7 +42644,7 @@
       <c r="AD366" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="AE366" t="s">
+      <c r="AE366" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF366" t="s">
@@ -42617,7 +42751,7 @@
       <c r="AD367" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="AE367" t="s">
+      <c r="AE367" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF367" t="s">
@@ -42724,7 +42858,7 @@
       <c r="AD368" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="AE368" t="s">
+      <c r="AE368" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF368" t="s">
@@ -42831,7 +42965,7 @@
       <c r="AD369" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="AE369" t="s">
+      <c r="AE369" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF369" t="s">
@@ -42938,7 +43072,7 @@
       <c r="AD370" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="AE370" t="s">
+      <c r="AE370" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF370" t="s">
@@ -43045,7 +43179,7 @@
       <c r="AD371" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="AE371" t="s">
+      <c r="AE371" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF371" t="s">
@@ -43152,7 +43286,7 @@
       <c r="AD372" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="AE372" t="s">
+      <c r="AE372" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF372" t="s">
@@ -43259,7 +43393,7 @@
       <c r="AD373" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="AE373" t="s">
+      <c r="AE373" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF373" t="s">
@@ -43366,7 +43500,7 @@
       <c r="AD374" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="AE374" t="s">
+      <c r="AE374" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF374" t="s">
@@ -43473,7 +43607,7 @@
       <c r="AD375" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="AE375" t="s">
+      <c r="AE375" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF375" t="s">
@@ -43580,7 +43714,7 @@
       <c r="AD376" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="AE376" t="s">
+      <c r="AE376" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF376" t="s">
@@ -43687,7 +43821,7 @@
       <c r="AD377" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="AE377" t="s">
+      <c r="AE377" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF377" t="s">
@@ -43794,7 +43928,7 @@
       <c r="AD378" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="AE378" t="s">
+      <c r="AE378" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF378" t="s">
@@ -43901,7 +44035,7 @@
       <c r="AD379" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="AE379" t="s">
+      <c r="AE379" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF379" t="s">
@@ -44008,7 +44142,7 @@
       <c r="AD380" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="AE380" t="s">
+      <c r="AE380" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF380" t="s">
@@ -44115,7 +44249,7 @@
       <c r="AD381" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="AE381" t="s">
+      <c r="AE381" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF381" t="s">
@@ -44222,7 +44356,7 @@
       <c r="AD382" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="AE382" t="s">
+      <c r="AE382" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF382" t="s">
@@ -44329,7 +44463,7 @@
       <c r="AD383" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="AE383" t="s">
+      <c r="AE383" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF383" t="s">
@@ -44436,7 +44570,7 @@
       <c r="AD384" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="AE384" t="s">
+      <c r="AE384" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF384" t="s">
@@ -44543,7 +44677,7 @@
       <c r="AD385" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="AE385" t="s">
+      <c r="AE385" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF385" t="s">
@@ -44650,7 +44784,7 @@
       <c r="AD386" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="AE386" t="s">
+      <c r="AE386" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF386" t="s">
@@ -44757,7 +44891,7 @@
       <c r="AD387" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="AE387" t="s">
+      <c r="AE387" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF387" t="s">
@@ -44864,7 +44998,7 @@
       <c r="AD388" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="AE388" t="s">
+      <c r="AE388" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF388" t="s">
@@ -44971,7 +45105,7 @@
       <c r="AD389" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="AE389" t="s">
+      <c r="AE389" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF389" t="s">
@@ -45078,7 +45212,7 @@
       <c r="AD390" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="AE390" t="s">
+      <c r="AE390" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF390" t="s">
@@ -45185,7 +45319,7 @@
       <c r="AD391" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="AE391" t="s">
+      <c r="AE391" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF391" t="s">
@@ -45292,7 +45426,7 @@
       <c r="AD392" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="AE392" t="s">
+      <c r="AE392" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF392" t="s">
@@ -45399,7 +45533,7 @@
       <c r="AD393" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="AE393" t="s">
+      <c r="AE393" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF393" t="s">
@@ -45506,7 +45640,7 @@
       <c r="AD394" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="AE394" t="s">
+      <c r="AE394" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF394" t="s">
@@ -45613,7 +45747,7 @@
       <c r="AD395" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="AE395" t="s">
+      <c r="AE395" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF395" t="s">
@@ -45720,7 +45854,7 @@
       <c r="AD396" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="AE396" t="s">
+      <c r="AE396" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF396" t="s">
@@ -45827,7 +45961,7 @@
       <c r="AD397" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="AE397" t="s">
+      <c r="AE397" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF397" t="s">
@@ -45934,7 +46068,7 @@
       <c r="AD398" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="AE398" t="s">
+      <c r="AE398" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF398" t="s">
@@ -46041,7 +46175,7 @@
       <c r="AD399" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="AE399" t="s">
+      <c r="AE399" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF399" t="s">
@@ -46148,7 +46282,7 @@
       <c r="AD400" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="AE400" t="s">
+      <c r="AE400" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF400" t="s">
@@ -46255,7 +46389,7 @@
       <c r="AD401" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="AE401" t="s">
+      <c r="AE401" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF401" t="s">
@@ -46362,7 +46496,7 @@
       <c r="AD402" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="AE402" t="s">
+      <c r="AE402" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF402" t="s">
@@ -46469,7 +46603,7 @@
       <c r="AD403" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="AE403" t="s">
+      <c r="AE403" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF403" t="s">
@@ -46576,7 +46710,7 @@
       <c r="AD404" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="AE404" t="s">
+      <c r="AE404" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF404" t="s">
@@ -46683,7 +46817,7 @@
       <c r="AD405" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="AE405" t="s">
+      <c r="AE405" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF405" t="s">
@@ -46790,7 +46924,7 @@
       <c r="AD406" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="AE406" t="s">
+      <c r="AE406" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF406" t="s">
@@ -46897,7 +47031,7 @@
       <c r="AD407" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="AE407" t="s">
+      <c r="AE407" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF407" t="s">
@@ -47004,7 +47138,7 @@
       <c r="AD408" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="AE408" t="s">
+      <c r="AE408" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF408" t="s">
@@ -47111,7 +47245,7 @@
       <c r="AD409" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="AE409" t="s">
+      <c r="AE409" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF409" t="s">
@@ -47218,7 +47352,7 @@
       <c r="AD410" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="AE410" t="s">
+      <c r="AE410" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF410" t="s">
@@ -47325,7 +47459,7 @@
       <c r="AD411" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="AE411" t="s">
+      <c r="AE411" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF411" t="s">
@@ -47432,7 +47566,7 @@
       <c r="AD412" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="AE412" t="s">
+      <c r="AE412" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF412" t="s">
@@ -47539,7 +47673,7 @@
       <c r="AD413" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="AE413" t="s">
+      <c r="AE413" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF413" t="s">
@@ -47646,7 +47780,7 @@
       <c r="AD414" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="AE414" t="s">
+      <c r="AE414" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF414" t="s">
@@ -47753,7 +47887,7 @@
       <c r="AD415" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="AE415" t="s">
+      <c r="AE415" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF415" t="s">
@@ -47860,7 +47994,7 @@
       <c r="AD416" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="AE416" t="s">
+      <c r="AE416" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF416" t="s">
@@ -47967,7 +48101,7 @@
       <c r="AD417" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="AE417" t="s">
+      <c r="AE417" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF417" t="s">
@@ -48074,7 +48208,7 @@
       <c r="AD418" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="AE418" t="s">
+      <c r="AE418" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF418" t="s">
@@ -48181,7 +48315,7 @@
       <c r="AD419" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="AE419" t="s">
+      <c r="AE419" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF419" t="s">
@@ -48288,7 +48422,7 @@
       <c r="AD420" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="AE420" t="s">
+      <c r="AE420" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF420" t="s">
@@ -48395,7 +48529,7 @@
       <c r="AD421" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="AE421" t="s">
+      <c r="AE421" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF421" t="s">
@@ -48502,7 +48636,7 @@
       <c r="AD422" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="AE422" t="s">
+      <c r="AE422" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF422" t="s">
@@ -48609,7 +48743,7 @@
       <c r="AD423" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="AE423" t="s">
+      <c r="AE423" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF423" t="s">
@@ -48716,7 +48850,7 @@
       <c r="AD424" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="AE424" t="s">
+      <c r="AE424" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF424" t="s">
@@ -48823,7 +48957,7 @@
       <c r="AD425" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="AE425" t="s">
+      <c r="AE425" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF425" t="s">
@@ -48930,7 +49064,7 @@
       <c r="AD426" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="AE426" t="s">
+      <c r="AE426" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF426" t="s">
@@ -49037,7 +49171,7 @@
       <c r="AD427" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="AE427" t="s">
+      <c r="AE427" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF427" t="s">
@@ -49144,7 +49278,7 @@
       <c r="AD428" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="AE428" t="s">
+      <c r="AE428" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF428" t="s">
@@ -49251,7 +49385,7 @@
       <c r="AD429" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="AE429" t="s">
+      <c r="AE429" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF429" t="s">
@@ -49358,7 +49492,7 @@
       <c r="AD430" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="AE430" t="s">
+      <c r="AE430" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF430" t="s">
@@ -49465,7 +49599,7 @@
       <c r="AD431" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="AE431" t="s">
+      <c r="AE431" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF431" t="s">
@@ -49572,7 +49706,7 @@
       <c r="AD432" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="AE432" t="s">
+      <c r="AE432" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF432" t="s">
@@ -49679,7 +49813,7 @@
       <c r="AD433" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="AE433" t="s">
+      <c r="AE433" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF433" t="s">
@@ -49786,7 +49920,7 @@
       <c r="AD434" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="AE434" t="s">
+      <c r="AE434" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF434" t="s">
@@ -49893,7 +50027,7 @@
       <c r="AD435" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="AE435" t="s">
+      <c r="AE435" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF435" t="s">
